--- a/suma.xlsx
+++ b/suma.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C2:C13"/>
+      <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
